--- a/changeLog.xlsx
+++ b/changeLog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25095" windowHeight="9975"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="25095" windowHeight="9975"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="170">
   <si>
     <t>added checkedComboboxEdit to frmReports to filter by states</t>
   </si>
@@ -531,6 +531,9 @@
   </si>
   <si>
     <t>debug procedure; test results</t>
+  </si>
+  <si>
+    <t>debug procedure; test results; check exc_log;</t>
   </si>
 </sst>
 </file>
@@ -585,11 +588,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -871,12 +875,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S121"/>
+  <dimension ref="A1:S150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="B122" sqref="B122"/>
+      <selection pane="bottomLeft" activeCell="C151" sqref="C151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2543,6 +2547,9 @@
       <c r="B119" t="s">
         <v>167</v>
       </c>
+      <c r="H119">
+        <v>8.8823529411764692</v>
+      </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
@@ -2551,13 +2558,331 @@
       <c r="B120" t="s">
         <v>168</v>
       </c>
+      <c r="H120">
+        <v>2.28125</v>
+      </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>43097</v>
       </c>
       <c r="B121" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="C121">
+        <v>4.1882200000000003</v>
+      </c>
+      <c r="D121" s="1">
+        <v>43018</v>
+      </c>
+      <c r="F121">
+        <v>151</v>
+      </c>
+      <c r="H121">
+        <v>2.28571428571429</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C122">
+        <v>6.9287400000000003</v>
+      </c>
+      <c r="D122" s="1">
+        <v>42320</v>
+      </c>
+      <c r="F122">
+        <v>73</v>
+      </c>
+      <c r="H122">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C123">
+        <v>5.9655899999999997</v>
+      </c>
+      <c r="D123">
+        <f>D121-D122</f>
+        <v>698</v>
+      </c>
+      <c r="F123">
+        <v>64</v>
+      </c>
+      <c r="H123">
+        <v>2.31034482758621</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C124" s="4">
+        <v>6.3470500000000003</v>
+      </c>
+      <c r="D124">
+        <f>18+D123</f>
+        <v>716</v>
+      </c>
+      <c r="F124">
+        <v>69</v>
+      </c>
+      <c r="H124">
+        <v>2.3030303030303001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C125">
+        <v>6.71746</v>
+      </c>
+      <c r="F125">
+        <v>67</v>
+      </c>
+      <c r="H125">
+        <v>2.5555555555555598</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C126">
+        <v>6.6304999999999996</v>
+      </c>
+      <c r="F126">
+        <v>76</v>
+      </c>
+      <c r="H126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C127">
+        <v>7.3072100000000004</v>
+      </c>
+      <c r="F127">
+        <v>23</v>
+      </c>
+      <c r="H127">
+        <v>0.78571428571428603</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C128">
+        <v>5.6530199999999997</v>
+      </c>
+      <c r="F128">
+        <v>19</v>
+      </c>
+      <c r="H128">
+        <v>0.76666666666666705</v>
+      </c>
+    </row>
+    <row r="129" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C129">
+        <v>6.1124999999999998</v>
+      </c>
+      <c r="F129">
+        <v>22</v>
+      </c>
+      <c r="H129">
+        <v>0.78571428571428603</v>
+      </c>
+    </row>
+    <row r="130" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C130">
+        <v>5.3379300000000001</v>
+      </c>
+      <c r="F130">
+        <v>23</v>
+      </c>
+      <c r="H130">
+        <v>1.1785714285714299</v>
+      </c>
+    </row>
+    <row r="131" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C131">
+        <v>5.7370700000000001</v>
+      </c>
+      <c r="F131">
+        <v>22</v>
+      </c>
+      <c r="H131">
+        <v>2.3214285714285698</v>
+      </c>
+    </row>
+    <row r="132" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C132">
+        <v>4.9959699999999998</v>
+      </c>
+      <c r="F132">
+        <v>33</v>
+      </c>
+      <c r="H132">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="133" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C133">
+        <v>6.0945499999999999</v>
+      </c>
+      <c r="F133">
+        <v>65</v>
+      </c>
+      <c r="H133">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="134" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C134">
+        <v>5.0969800000000003</v>
+      </c>
+      <c r="F134">
+        <v>14</v>
+      </c>
+      <c r="H134">
+        <v>4.3666666666666698</v>
+      </c>
+    </row>
+    <row r="135" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C135">
+        <v>5.9030199999999997</v>
+      </c>
+      <c r="F135">
+        <v>111</v>
+      </c>
+      <c r="H135">
+        <v>4.03571428571429</v>
+      </c>
+    </row>
+    <row r="136" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C136">
+        <v>6.4137899999999997</v>
+      </c>
+      <c r="F136">
+        <v>131</v>
+      </c>
+      <c r="H136">
+        <v>3.3571428571428599</v>
+      </c>
+    </row>
+    <row r="137" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C137">
+        <v>6.3479599999999996</v>
+      </c>
+      <c r="F137">
+        <v>113</v>
+      </c>
+      <c r="H137">
+        <v>2.27586206896552</v>
+      </c>
+    </row>
+    <row r="138" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C138">
+        <v>7.9393900000000004</v>
+      </c>
+      <c r="F138">
+        <v>94</v>
+      </c>
+      <c r="H138">
+        <v>1.19354838709677</v>
+      </c>
+    </row>
+    <row r="139" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C139">
+        <v>7.6092000000000004</v>
+      </c>
+      <c r="F139">
+        <v>66</v>
+      </c>
+      <c r="H139">
+        <v>0.82142857142857095</v>
+      </c>
+    </row>
+    <row r="140" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C140">
+        <v>7.1757499999999999</v>
+      </c>
+      <c r="F140">
+        <v>37</v>
+      </c>
+      <c r="H140">
+        <v>0.78571428571428603</v>
+      </c>
+    </row>
+    <row r="141" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C141">
+        <v>7.3817199999999996</v>
+      </c>
+      <c r="F141">
+        <v>23</v>
+      </c>
+      <c r="H141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C142">
+        <v>7</v>
+      </c>
+      <c r="F142">
+        <v>22</v>
+      </c>
+      <c r="H142">
+        <v>0.96551724137931005</v>
+      </c>
+    </row>
+    <row r="143" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C143">
+        <v>6.0416699999999999</v>
+      </c>
+      <c r="F143">
+        <v>32</v>
+      </c>
+      <c r="H143">
+        <f>AVERAGE(H119:H142)</f>
+        <v>2.1956432298027644</v>
+      </c>
+    </row>
+    <row r="144" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C144">
+        <v>6.5443499999999997</v>
+      </c>
+      <c r="F144">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="145" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C145">
+        <v>5.5357099999999999</v>
+      </c>
+      <c r="F145">
+        <f>SUM(F121:F144)</f>
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="146" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C146">
+        <v>7611.2380999999996</v>
+      </c>
+      <c r="E146">
+        <f>F145/D124</f>
+        <v>1.9245810055865922</v>
+      </c>
+    </row>
+    <row r="147" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C147">
+        <v>5.7643700000000004</v>
+      </c>
+    </row>
+    <row r="148" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C148">
+        <f>SUM(C121:C147)</f>
+        <v>7774.0078199999998</v>
+      </c>
+    </row>
+    <row r="149" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C149">
+        <f>27*30.5</f>
+        <v>823.5</v>
+      </c>
+    </row>
+    <row r="150" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C150">
+        <f>C148/C149</f>
+        <v>9.4402037887067394</v>
       </c>
     </row>
   </sheetData>

--- a/changeLog.xlsx
+++ b/changeLog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="25095" windowHeight="9975"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25095" windowHeight="9975"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="171">
   <si>
     <t>added checkedComboboxEdit to frmReports to filter by states</t>
   </si>
@@ -534,6 +534,9 @@
   </si>
   <si>
     <t>debug procedure; test results; check exc_log;</t>
+  </si>
+  <si>
+    <t>query to test procedure</t>
   </si>
 </sst>
 </file>
@@ -875,12 +878,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S150"/>
+  <dimension ref="A1:S125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C151" sqref="C151"/>
+      <selection pane="bottomLeft" activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -890,7 +893,7 @@
     <col min="3" max="3" width="29.85546875" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="6.140625" customWidth="1"/>
@@ -2547,9 +2550,6 @@
       <c r="B119" t="s">
         <v>167</v>
       </c>
-      <c r="H119">
-        <v>8.8823529411764692</v>
-      </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
@@ -2558,9 +2558,6 @@
       <c r="B120" t="s">
         <v>168</v>
       </c>
-      <c r="H120">
-        <v>2.28125</v>
-      </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
@@ -2569,320 +2566,28 @@
       <c r="B121" t="s">
         <v>169</v>
       </c>
-      <c r="C121">
-        <v>4.1882200000000003</v>
-      </c>
-      <c r="D121" s="1">
-        <v>43018</v>
-      </c>
-      <c r="F121">
-        <v>151</v>
-      </c>
-      <c r="H121">
-        <v>2.28571428571429</v>
-      </c>
+      <c r="D121" s="1"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C122">
-        <v>6.9287400000000003</v>
-      </c>
-      <c r="D122" s="1">
-        <v>42320</v>
-      </c>
-      <c r="F122">
-        <v>73</v>
-      </c>
-      <c r="H122">
-        <v>2.2999999999999998</v>
-      </c>
+      <c r="D122" s="1"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C123">
-        <v>5.9655899999999997</v>
-      </c>
-      <c r="D123">
-        <f>D121-D122</f>
-        <v>698</v>
-      </c>
-      <c r="F123">
-        <v>64</v>
-      </c>
-      <c r="H123">
-        <v>2.31034482758621</v>
+      <c r="A123" s="1">
+        <v>43101</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C124" s="4">
-        <v>6.3470500000000003</v>
-      </c>
-      <c r="D124">
-        <f>18+D123</f>
-        <v>716</v>
-      </c>
-      <c r="F124">
-        <v>69</v>
-      </c>
-      <c r="H124">
-        <v>2.3030303030303001</v>
-      </c>
+      <c r="A124" s="1">
+        <v>43102</v>
+      </c>
+      <c r="C124" s="4"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C125">
-        <v>6.71746</v>
-      </c>
-      <c r="F125">
-        <v>67</v>
-      </c>
-      <c r="H125">
-        <v>2.5555555555555598</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C126">
-        <v>6.6304999999999996</v>
-      </c>
-      <c r="F126">
-        <v>76</v>
-      </c>
-      <c r="H126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C127">
-        <v>7.3072100000000004</v>
-      </c>
-      <c r="F127">
-        <v>23</v>
-      </c>
-      <c r="H127">
-        <v>0.78571428571428603</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C128">
-        <v>5.6530199999999997</v>
-      </c>
-      <c r="F128">
-        <v>19</v>
-      </c>
-      <c r="H128">
-        <v>0.76666666666666705</v>
-      </c>
-    </row>
-    <row r="129" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C129">
-        <v>6.1124999999999998</v>
-      </c>
-      <c r="F129">
-        <v>22</v>
-      </c>
-      <c r="H129">
-        <v>0.78571428571428603</v>
-      </c>
-    </row>
-    <row r="130" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C130">
-        <v>5.3379300000000001</v>
-      </c>
-      <c r="F130">
-        <v>23</v>
-      </c>
-      <c r="H130">
-        <v>1.1785714285714299</v>
-      </c>
-    </row>
-    <row r="131" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C131">
-        <v>5.7370700000000001</v>
-      </c>
-      <c r="F131">
-        <v>22</v>
-      </c>
-      <c r="H131">
-        <v>2.3214285714285698</v>
-      </c>
-    </row>
-    <row r="132" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C132">
-        <v>4.9959699999999998</v>
-      </c>
-      <c r="F132">
-        <v>33</v>
-      </c>
-      <c r="H132">
-        <v>0.4375</v>
-      </c>
-    </row>
-    <row r="133" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C133">
-        <v>6.0945499999999999</v>
-      </c>
-      <c r="F133">
-        <v>65</v>
-      </c>
-      <c r="H133">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="134" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C134">
-        <v>5.0969800000000003</v>
-      </c>
-      <c r="F134">
-        <v>14</v>
-      </c>
-      <c r="H134">
-        <v>4.3666666666666698</v>
-      </c>
-    </row>
-    <row r="135" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C135">
-        <v>5.9030199999999997</v>
-      </c>
-      <c r="F135">
-        <v>111</v>
-      </c>
-      <c r="H135">
-        <v>4.03571428571429</v>
-      </c>
-    </row>
-    <row r="136" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C136">
-        <v>6.4137899999999997</v>
-      </c>
-      <c r="F136">
-        <v>131</v>
-      </c>
-      <c r="H136">
-        <v>3.3571428571428599</v>
-      </c>
-    </row>
-    <row r="137" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C137">
-        <v>6.3479599999999996</v>
-      </c>
-      <c r="F137">
-        <v>113</v>
-      </c>
-      <c r="H137">
-        <v>2.27586206896552</v>
-      </c>
-    </row>
-    <row r="138" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C138">
-        <v>7.9393900000000004</v>
-      </c>
-      <c r="F138">
-        <v>94</v>
-      </c>
-      <c r="H138">
-        <v>1.19354838709677</v>
-      </c>
-    </row>
-    <row r="139" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C139">
-        <v>7.6092000000000004</v>
-      </c>
-      <c r="F139">
-        <v>66</v>
-      </c>
-      <c r="H139">
-        <v>0.82142857142857095</v>
-      </c>
-    </row>
-    <row r="140" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C140">
-        <v>7.1757499999999999</v>
-      </c>
-      <c r="F140">
-        <v>37</v>
-      </c>
-      <c r="H140">
-        <v>0.78571428571428603</v>
-      </c>
-    </row>
-    <row r="141" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C141">
-        <v>7.3817199999999996</v>
-      </c>
-      <c r="F141">
-        <v>23</v>
-      </c>
-      <c r="H141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C142">
-        <v>7</v>
-      </c>
-      <c r="F142">
-        <v>22</v>
-      </c>
-      <c r="H142">
-        <v>0.96551724137931005</v>
-      </c>
-    </row>
-    <row r="143" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C143">
-        <v>6.0416699999999999</v>
-      </c>
-      <c r="F143">
-        <v>32</v>
-      </c>
-      <c r="H143">
-        <f>AVERAGE(H119:H142)</f>
-        <v>2.1956432298027644</v>
-      </c>
-    </row>
-    <row r="144" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C144">
-        <v>6.5443499999999997</v>
-      </c>
-      <c r="F144">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="145" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C145">
-        <v>5.5357099999999999</v>
-      </c>
-      <c r="F145">
-        <f>SUM(F121:F144)</f>
-        <v>1378</v>
-      </c>
-    </row>
-    <row r="146" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C146">
-        <v>7611.2380999999996</v>
-      </c>
-      <c r="E146">
-        <f>F145/D124</f>
-        <v>1.9245810055865922</v>
-      </c>
-    </row>
-    <row r="147" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C147">
-        <v>5.7643700000000004</v>
-      </c>
-    </row>
-    <row r="148" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C148">
-        <f>SUM(C121:C147)</f>
-        <v>7774.0078199999998</v>
-      </c>
-    </row>
-    <row r="149" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C149">
-        <f>27*30.5</f>
-        <v>823.5</v>
-      </c>
-    </row>
-    <row r="150" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C150">
-        <f>C148/C149</f>
-        <v>9.4402037887067394</v>
+      <c r="A125" s="1">
+        <v>43103</v>
+      </c>
+      <c r="B125" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
